--- a/北京新都现场签字人员.xlsx
+++ b/北京新都现场签字人员.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="6855"/>
+    <workbookView windowWidth="22188" windowHeight="9575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1225,12 +1225,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.2212389380531" customWidth="1"/>
+    <col min="1" max="1" width="11.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
